--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1067777.911261271</v>
+        <v>1064910.030566859</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8444415.160587981</v>
+        <v>8444421.381715726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11484480.50482611</v>
+        <v>11484460.31916972</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>96.63637838508468</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>88.37396379153448</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>135.1157241044941</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>190.271393580297</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>370.2093506818072</v>
+        <v>207.2096032800592</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>39.25266187003811</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.252601227923257</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>92.39306372366568</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>118.623305425345</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>266.6910260201686</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>229.5889480231534</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>163.689844124971</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>131.7730784234078</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534528</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>28.20740243970035</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365931</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250783</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.6898441249706</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.26879610203937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5675193320709</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>74.75769145492362</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H26" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I26" t="n">
-        <v>7.594561284787801</v>
+        <v>7.081331206015562</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.10156188094678</v>
+        <v>88.79820333299212</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H27" t="n">
-        <v>85.04200907392678</v>
+        <v>84.97321768248376</v>
       </c>
       <c r="I27" t="n">
-        <v>2.579389070766553</v>
+        <v>2.334151821526035</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3833537044361</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>17.64569410020112</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>84.78057099738635</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>70.88542329426755</v>
       </c>
       <c r="S28" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I29" t="n">
-        <v>7.594561284787801</v>
+        <v>7.081331206015562</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.10156188094678</v>
+        <v>88.79820333299212</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H30" t="n">
-        <v>85.04200907392678</v>
+        <v>84.97321768248376</v>
       </c>
       <c r="I30" t="n">
-        <v>2.579389070766553</v>
+        <v>2.334151821526035</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.3833537044361</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4353940427163</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.1485703907557</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>84.46192760898774</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>70.88542329426755</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H32" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I32" t="n">
-        <v>7.594561284787801</v>
+        <v>7.081331206015562</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.10156188094678</v>
+        <v>88.79820333299212</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H33" t="n">
-        <v>85.04200907392678</v>
+        <v>84.97321768248376</v>
       </c>
       <c r="I33" t="n">
-        <v>2.579389070766553</v>
+        <v>2.334151821526035</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.3833537044361</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4353940427172</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2396273813003</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>84.46192760898774</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>70.88542329426755</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V34" t="n">
-        <v>246.0001320843925</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>5.313812950988981</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>89.534082237451</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>81.37259901119295</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.51717103550038</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>85.25887760429683</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>81.37259901119521</v>
       </c>
       <c r="F46" t="n">
-        <v>141.2342243404103</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.524362591491</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.524362591491</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1275.524362591491</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>889.7361099932466</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>478.750205203639</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548715</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916692</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.124202655613</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1332.357248852006</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="C5" t="n">
-        <v>1332.357248852006</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="D5" t="n">
-        <v>974.0915502452551</v>
+        <v>827.6974921906997</v>
       </c>
       <c r="E5" t="n">
-        <v>588.3032976470108</v>
+        <v>827.6974921906997</v>
       </c>
       <c r="F5" t="n">
-        <v>581.3577968978074</v>
+        <v>416.7115874010921</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,55 +4562,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177207</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.422847177207</v>
+        <v>1949.568281034342</v>
       </c>
       <c r="X5" t="n">
-        <v>1718.957088916127</v>
+        <v>1576.102522773262</v>
       </c>
       <c r="Y5" t="n">
-        <v>1718.957088916127</v>
+        <v>1185.96319079745</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064341</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>688.4798308023552</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D7" t="n">
-        <v>688.4798308023552</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E7" t="n">
-        <v>540.5667372199621</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220518</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>500.8207968750364</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064341</v>
+        <v>500.8207968750364</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064341</v>
+        <v>500.8207968750364</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064341</v>
+        <v>496.5252400791543</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064341</v>
+        <v>268.535689181137</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064341</v>
+        <v>268.535689181137</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1816.442957727741</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1816.442957727741</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1458.177259120991</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1072.389006522747</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332392</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332392</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988821</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988821</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.442957727741</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1816.442957727741</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="U10" t="n">
-        <v>458.7441094385871</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="V10" t="n">
-        <v>204.0596212327002</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>204.0596212327002</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5045,19 +5045,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,49 +5121,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>654.9300288380086</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C13" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
         <v>344.6708498442064</v>
@@ -5224,25 +5224,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.57685067423</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.892362468343</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.475192431382</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>1057.371072811779</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>836.5784936682484</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>932.5990189467745</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1797.117834600129</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3610.459375831136</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4323.814463278081</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5303,25 +5303,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,7 +5385,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5394,7 +5394,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,34 +5452,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1838.020683165565</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1548.917816291208</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1294.233328085321</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>1004.81615804836</v>
+        <v>619.8559841413771</v>
       </c>
       <c r="X16" t="n">
-        <v>1004.81615804836</v>
+        <v>391.8664332433598</v>
       </c>
       <c r="Y16" t="n">
-        <v>784.0235789048305</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622689</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2707.641918722172</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5555,10 +5555,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="D19" t="n">
         <v>95.56103444839442</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838516</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858342</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423041</v>
+        <v>171.0738540998323</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1840.447459262339</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2373.979363934263</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.758180993045</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.7228313225</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,25 +5829,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5908,13 +5908,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,19 +5923,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
         <v>1542.890966501056</v>
@@ -5944,16 +5944,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838516</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858343</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423041</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807097</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750057</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107235</v>
+        <v>4270.801548335825</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,7 +6096,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6105,7 +6105,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.482124425628</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.519607485217</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.253908878467</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.465656280222</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4797514906149</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G26" t="n">
-        <v>390.2976618760567</v>
+        <v>389.6203923141829</v>
       </c>
       <c r="H26" t="n">
-        <v>101.832466369653</v>
+        <v>101.2929105653993</v>
       </c>
       <c r="I26" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J26" t="n">
-        <v>383.3757687737228</v>
+        <v>358.2021945153782</v>
       </c>
       <c r="K26" t="n">
-        <v>828.1985237881855</v>
+        <v>804.7014151994163</v>
       </c>
       <c r="L26" t="n">
-        <v>1416.94224716019</v>
+        <v>1395.524942477764</v>
       </c>
       <c r="M26" t="n">
-        <v>2103.702515626547</v>
+        <v>2369.178015211322</v>
       </c>
       <c r="N26" t="n">
-        <v>2806.189091601278</v>
+        <v>3074.016219660736</v>
       </c>
       <c r="O26" t="n">
-        <v>3456.191983872735</v>
+        <v>3726.239688016504</v>
       </c>
       <c r="P26" t="n">
-        <v>3976.453413219067</v>
+        <v>4248.396327675951</v>
       </c>
       <c r="Q26" t="n">
-        <v>4529.167173995941</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.05961723076</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.058039573237</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T26" t="n">
-        <v>4415.977845223255</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.518597340327</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.455709996756</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W26" t="n">
-        <v>3478.687054726642</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.221296465562</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.08196448975</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.7138223180867</v>
+        <v>947.3682853256663</v>
       </c>
       <c r="C27" t="n">
-        <v>773.2607930369597</v>
+        <v>772.9152560445393</v>
       </c>
       <c r="D27" t="n">
-        <v>624.3263833757085</v>
+        <v>623.9808463832881</v>
       </c>
       <c r="E27" t="n">
-        <v>465.088928370253</v>
+        <v>464.7433913778326</v>
       </c>
       <c r="F27" t="n">
-        <v>318.554370397138</v>
+        <v>318.2088334047176</v>
       </c>
       <c r="G27" t="n">
-        <v>182.6676551170327</v>
+        <v>182.3293128866051</v>
       </c>
       <c r="H27" t="n">
-        <v>96.76663585043998</v>
+        <v>96.4977798739952</v>
       </c>
       <c r="I27" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J27" t="n">
-        <v>231.9507289421376</v>
+        <v>232.5958076174678</v>
       </c>
       <c r="K27" t="n">
-        <v>545.609818506716</v>
+        <v>547.3935737179997</v>
       </c>
       <c r="L27" t="n">
-        <v>782.8429578756605</v>
+        <v>1017.000559852561</v>
       </c>
       <c r="M27" t="n">
-        <v>1348.422317811588</v>
+        <v>1584.366630913296</v>
       </c>
       <c r="N27" t="n">
-        <v>1943.379525386857</v>
+        <v>2181.157838540322</v>
       </c>
       <c r="O27" t="n">
-        <v>1943.379525386857</v>
+        <v>2312.343290083221</v>
       </c>
       <c r="P27" t="n">
-        <v>2343.03746073281</v>
+        <v>2312.343290083221</v>
       </c>
       <c r="Q27" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.540958308641</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>474.601173826319</v>
+        <v>408.9705711061353</v>
       </c>
       <c r="C28" t="n">
-        <v>474.601173826319</v>
+        <v>391.1466376715887</v>
       </c>
       <c r="D28" t="n">
-        <v>474.601173826319</v>
+        <v>241.029998259253</v>
       </c>
       <c r="E28" t="n">
-        <v>326.6880802439259</v>
+        <v>241.029998259253</v>
       </c>
       <c r="F28" t="n">
-        <v>179.7981327460155</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G28" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H28" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I28" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J28" t="n">
-        <v>166.9584435603207</v>
+        <v>167.3552671573046</v>
       </c>
       <c r="K28" t="n">
-        <v>416.4235264532475</v>
+        <v>417.5071952352229</v>
       </c>
       <c r="L28" t="n">
-        <v>791.1793793371899</v>
+        <v>793.141973483433</v>
       </c>
       <c r="M28" t="n">
-        <v>1196.696004649983</v>
+        <v>1199.585302358418</v>
       </c>
       <c r="N28" t="n">
-        <v>1598.004967408915</v>
+        <v>1601.798933740117</v>
       </c>
       <c r="O28" t="n">
-        <v>1952.662452740134</v>
+        <v>1957.292026969321</v>
       </c>
       <c r="P28" t="n">
-        <v>2232.612518185972</v>
+        <v>2237.95709932761</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.83996726288</v>
       </c>
       <c r="R28" t="n">
-        <v>2343.000352396753</v>
+        <v>2277.238529591902</v>
       </c>
       <c r="S28" t="n">
-        <v>2158.274661052483</v>
+        <v>2092.617956886289</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.214509174218</v>
+        <v>1872.58357744421</v>
       </c>
       <c r="U28" t="n">
-        <v>1649.133426940953</v>
+        <v>1583.50282422077</v>
       </c>
       <c r="V28" t="n">
-        <v>1394.448938735066</v>
+        <v>1328.818336014883</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.031768698106</v>
+        <v>1039.401165977923</v>
       </c>
       <c r="X28" t="n">
-        <v>877.0422178000889</v>
+        <v>811.4116150799051</v>
       </c>
       <c r="Y28" t="n">
-        <v>656.2496386565588</v>
+        <v>590.619035936375</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.482124425629</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.519607485218</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.253908878467</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.465656280223</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F29" t="n">
-        <v>804.4797514906154</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G29" t="n">
-        <v>390.2976618760567</v>
+        <v>389.6203923141829</v>
       </c>
       <c r="H29" t="n">
-        <v>101.8324663696534</v>
+        <v>101.2929105653988</v>
       </c>
       <c r="I29" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J29" t="n">
-        <v>357.1047532886069</v>
+        <v>525.6078435357311</v>
       </c>
       <c r="K29" t="n">
-        <v>801.9275083030697</v>
+        <v>972.1070642197692</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.671231675075</v>
+        <v>1615.044308489595</v>
       </c>
       <c r="M29" t="n">
-        <v>2077.431500141432</v>
+        <v>2304.118759537069</v>
       </c>
       <c r="N29" t="n">
-        <v>3081.440188028837</v>
+        <v>3008.956963986483</v>
       </c>
       <c r="O29" t="n">
-        <v>3731.443080300294</v>
+        <v>3661.180432342251</v>
       </c>
       <c r="P29" t="n">
-        <v>4251.704509646625</v>
+        <v>4183.337072001698</v>
       </c>
       <c r="Q29" t="n">
-        <v>4594.226429670194</v>
+        <v>4527.282216042447</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.05961723076</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.058039573237</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T29" t="n">
-        <v>4415.977845223255</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.518597340328</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.455709996757</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W29" t="n">
-        <v>3478.687054726643</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.221296465563</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.081964489751</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.7138223180867</v>
+        <v>947.3682853256663</v>
       </c>
       <c r="C30" t="n">
-        <v>773.2607930369597</v>
+        <v>772.9152560445393</v>
       </c>
       <c r="D30" t="n">
-        <v>624.3263833757085</v>
+        <v>623.9808463832881</v>
       </c>
       <c r="E30" t="n">
-        <v>465.088928370253</v>
+        <v>464.7433913778326</v>
       </c>
       <c r="F30" t="n">
-        <v>318.554370397138</v>
+        <v>318.2088334047176</v>
       </c>
       <c r="G30" t="n">
-        <v>182.6676551170327</v>
+        <v>182.3293128866051</v>
       </c>
       <c r="H30" t="n">
-        <v>96.76663585043998</v>
+        <v>96.4977798739952</v>
       </c>
       <c r="I30" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J30" t="n">
-        <v>231.9507289421376</v>
+        <v>232.5958076174678</v>
       </c>
       <c r="K30" t="n">
-        <v>545.609818506716</v>
+        <v>547.3935737179997</v>
       </c>
       <c r="L30" t="n">
-        <v>1013.685713517276</v>
+        <v>1017.000559852561</v>
       </c>
       <c r="M30" t="n">
-        <v>1013.685713517276</v>
+        <v>1584.366630913296</v>
       </c>
       <c r="N30" t="n">
-        <v>1608.642921092545</v>
+        <v>2181.157838540322</v>
       </c>
       <c r="O30" t="n">
-        <v>2130.692736500028</v>
+        <v>2181.157838540322</v>
       </c>
       <c r="P30" t="n">
-        <v>2343.03746073281</v>
+        <v>2312.343290083221</v>
       </c>
       <c r="Q30" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T30" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U30" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.540958308641</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1100.179596192385</v>
+        <v>408.9705711061347</v>
       </c>
       <c r="C31" t="n">
-        <v>931.2434132644781</v>
+        <v>240.0343881782278</v>
       </c>
       <c r="D31" t="n">
-        <v>781.1267738521424</v>
+        <v>240.0343881782278</v>
       </c>
       <c r="E31" t="n">
-        <v>633.2136802697493</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="F31" t="n">
-        <v>486.3237327718389</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G31" t="n">
-        <v>319.020281233245</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H31" t="n">
-        <v>179.4762707375321</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J31" t="n">
-        <v>166.9584435603207</v>
+        <v>167.3552671573047</v>
       </c>
       <c r="K31" t="n">
-        <v>416.4235264532477</v>
+        <v>417.5071952352229</v>
       </c>
       <c r="L31" t="n">
-        <v>791.1793793371899</v>
+        <v>793.1419734834334</v>
       </c>
       <c r="M31" t="n">
-        <v>1196.696004649983</v>
+        <v>1199.585302358418</v>
       </c>
       <c r="N31" t="n">
-        <v>1598.004967408915</v>
+        <v>1601.798933740117</v>
       </c>
       <c r="O31" t="n">
-        <v>1952.662452740134</v>
+        <v>1957.292026969321</v>
       </c>
       <c r="P31" t="n">
-        <v>2232.612518185972</v>
+        <v>2237.95709932761</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262879</v>
       </c>
       <c r="R31" t="n">
-        <v>2343.000352396753</v>
+        <v>2277.238529591902</v>
       </c>
       <c r="S31" t="n">
-        <v>2343.000352396753</v>
+        <v>2092.617956886289</v>
       </c>
       <c r="T31" t="n">
-        <v>2343.000352396753</v>
+        <v>1872.58357744421</v>
       </c>
       <c r="U31" t="n">
-        <v>2053.919270163489</v>
+        <v>1583.50282422077</v>
       </c>
       <c r="V31" t="n">
-        <v>1799.234781957602</v>
+        <v>1328.818336014883</v>
       </c>
       <c r="W31" t="n">
-        <v>1509.817611920642</v>
+        <v>1039.401165977922</v>
       </c>
       <c r="X31" t="n">
-        <v>1281.828061022625</v>
+        <v>811.4116150799045</v>
       </c>
       <c r="Y31" t="n">
-        <v>1281.828061022625</v>
+        <v>590.6190359363744</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.482124425628</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.519607485217</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.253908878467</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.465656280222</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4797514906149</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G32" t="n">
-        <v>390.2976618760567</v>
+        <v>389.6203923141829</v>
       </c>
       <c r="H32" t="n">
-        <v>101.832466369653</v>
+        <v>101.2929105653988</v>
       </c>
       <c r="I32" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J32" t="n">
-        <v>524.51040230896</v>
+        <v>358.2021945153782</v>
       </c>
       <c r="K32" t="n">
-        <v>1103.449620215744</v>
+        <v>804.7014151994163</v>
       </c>
       <c r="L32" t="n">
-        <v>1692.193343587749</v>
+        <v>1395.524942477764</v>
       </c>
       <c r="M32" t="n">
-        <v>2378.953612054106</v>
+        <v>2084.599393525239</v>
       </c>
       <c r="N32" t="n">
-        <v>3081.440188028837</v>
+        <v>2789.437597974653</v>
       </c>
       <c r="O32" t="n">
-        <v>3731.443080300294</v>
+        <v>3441.661066330421</v>
       </c>
       <c r="P32" t="n">
-        <v>4251.704509646625</v>
+        <v>4038.204486922646</v>
       </c>
       <c r="Q32" t="n">
-        <v>4594.226429670194</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.05961723076</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.058039573237</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.977845223255</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.518597340327</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.455709996756</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W32" t="n">
-        <v>3478.687054726642</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.221296465562</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.08196448975</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.7138223180867</v>
+        <v>947.3682853256663</v>
       </c>
       <c r="C33" t="n">
-        <v>773.2607930369597</v>
+        <v>772.9152560445393</v>
       </c>
       <c r="D33" t="n">
-        <v>624.3263833757085</v>
+        <v>623.9808463832881</v>
       </c>
       <c r="E33" t="n">
-        <v>465.088928370253</v>
+        <v>464.7433913778326</v>
       </c>
       <c r="F33" t="n">
-        <v>318.554370397138</v>
+        <v>318.2088334047176</v>
       </c>
       <c r="G33" t="n">
-        <v>182.6676551170327</v>
+        <v>182.3293128866051</v>
       </c>
       <c r="H33" t="n">
-        <v>96.76663585043998</v>
+        <v>96.4977798739952</v>
       </c>
       <c r="I33" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J33" t="n">
-        <v>94.16119234461519</v>
+        <v>232.5958076174678</v>
       </c>
       <c r="K33" t="n">
-        <v>260.7931424681773</v>
+        <v>350.6381866984615</v>
       </c>
       <c r="L33" t="n">
-        <v>260.7931424681773</v>
+        <v>820.2451728330229</v>
       </c>
       <c r="M33" t="n">
-        <v>826.3725024041048</v>
+        <v>1387.611243893758</v>
       </c>
       <c r="N33" t="n">
-        <v>1421.329709979374</v>
+        <v>1387.611243893758</v>
       </c>
       <c r="O33" t="n">
-        <v>1943.379525386857</v>
+        <v>1911.338811047605</v>
       </c>
       <c r="P33" t="n">
-        <v>2343.03746073281</v>
+        <v>2312.343290083221</v>
       </c>
       <c r="Q33" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.540958308641</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1103.301875980814</v>
+        <v>408.9705711061356</v>
       </c>
       <c r="C34" t="n">
-        <v>934.3656930529069</v>
+        <v>240.0343881782287</v>
       </c>
       <c r="D34" t="n">
-        <v>784.2490536405711</v>
+        <v>240.0343881782287</v>
       </c>
       <c r="E34" t="n">
-        <v>636.335960058178</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="F34" t="n">
-        <v>489.4460125602676</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G34" t="n">
-        <v>322.1425610216738</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H34" t="n">
-        <v>179.4762707375321</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I34" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J34" t="n">
-        <v>166.9584435603207</v>
+        <v>167.3552671573046</v>
       </c>
       <c r="K34" t="n">
-        <v>416.4235264532477</v>
+        <v>417.5071952352228</v>
       </c>
       <c r="L34" t="n">
-        <v>791.1793793371899</v>
+        <v>793.1419734834333</v>
       </c>
       <c r="M34" t="n">
-        <v>1196.696004649983</v>
+        <v>1199.585302358418</v>
       </c>
       <c r="N34" t="n">
-        <v>1598.004967408915</v>
+        <v>1601.798933740117</v>
       </c>
       <c r="O34" t="n">
-        <v>1952.662452740134</v>
+        <v>1957.292026969321</v>
       </c>
       <c r="P34" t="n">
-        <v>2232.612518185972</v>
+        <v>2237.95709932761</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262879</v>
       </c>
       <c r="R34" t="n">
-        <v>2343.000352396753</v>
+        <v>2277.238529591902</v>
       </c>
       <c r="S34" t="n">
-        <v>2158.274661052483</v>
+        <v>2092.617956886289</v>
       </c>
       <c r="T34" t="n">
-        <v>2158.274661052483</v>
+        <v>1872.583577444211</v>
       </c>
       <c r="U34" t="n">
-        <v>1869.193578819219</v>
+        <v>1583.50282422077</v>
       </c>
       <c r="V34" t="n">
-        <v>1620.708596915792</v>
+        <v>1328.818336014883</v>
       </c>
       <c r="W34" t="n">
-        <v>1331.291426878831</v>
+        <v>1039.401165977923</v>
       </c>
       <c r="X34" t="n">
-        <v>1103.301875980814</v>
+        <v>811.4116150799055</v>
       </c>
       <c r="Y34" t="n">
-        <v>1103.301875980814</v>
+        <v>590.6190359363753</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127623</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.848348151607</v>
       </c>
       <c r="I35" t="n">
         <v>93.84834815160703</v>
@@ -7014,25 +7014,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>424.3570907149658</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L36" t="n">
-        <v>915.0894235587172</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M36" t="n">
-        <v>1476.806668636444</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="N36" t="n">
-        <v>2098.90263203578</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O36" t="n">
-        <v>2098.90263203578</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2518.486150461856</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
         <v>2518.486150461856</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.9550599890993</v>
+        <v>495.0957149475996</v>
       </c>
       <c r="C37" t="n">
-        <v>394.0188770611924</v>
+        <v>326.1595320196927</v>
       </c>
       <c r="D37" t="n">
-        <v>394.0188770611924</v>
+        <v>176.042892607357</v>
       </c>
       <c r="E37" t="n">
-        <v>246.1057834787994</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F37" t="n">
-        <v>99.2158359808891</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G37" t="n">
-        <v>99.2158359808891</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>99.2158359808891</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
@@ -7096,10 +7096,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117244</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948587</v>
       </c>
       <c r="M37" t="n">
         <v>1239.450608139318</v>
@@ -7111,34 +7111,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V37" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W37" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>965.3961039628691</v>
+        <v>897.5367589213695</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.603524819339</v>
+        <v>676.7441797778393</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7160,7 +7160,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
         <v>380.2757138127629</v>
@@ -7187,13 +7187,13 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
@@ -7263,10 +7263,10 @@
         <v>1654.755759562691</v>
       </c>
       <c r="N39" t="n">
-        <v>2276.851722962027</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="O39" t="n">
-        <v>2287.924876476609</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P39" t="n">
         <v>2287.924876476609</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149475997</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>326.1595320196928</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D40" t="n">
-        <v>235.7210651131766</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E40" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F40" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
         <v>93.84834815160703</v>
@@ -7333,10 +7333,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117241</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948583</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
         <v>1239.450608139318</v>
@@ -7345,16 +7345,16 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294195</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
         <v>2178.382964033126</v>
@@ -7363,19 +7363,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062234</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856347</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
         <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213695</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778395</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7397,10 +7397,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
         <v>93.84834815160703</v>
@@ -7409,19 +7409,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O41" t="n">
         <v>3654.445485610258</v>
@@ -7485,31 +7485,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K42" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L42" t="n">
-        <v>424.3570907149658</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.375444967093</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="N42" t="n">
-        <v>1638.471408366429</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O42" t="n">
-        <v>2185.347883366624</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.9184063975744</v>
+        <v>495.0957149476</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9822234696675</v>
+        <v>495.0957149476</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8655840573317</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9524904749385</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F43" t="n">
         <v>261.0625429770282</v>
@@ -7606,13 +7606,13 @@
         <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819388</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>1125.526309819388</v>
+        <v>897.5367589213698</v>
       </c>
       <c r="Y43" t="n">
-        <v>904.7337306758576</v>
+        <v>676.7441797778397</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.807711655511</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715099</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108349</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510105</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.805338720497</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399037</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
+        <v>93.84834815160706</v>
+      </c>
+      <c r="I44" t="n">
         <v>93.84834815160703</v>
       </c>
-      <c r="I44" t="n">
-        <v>95.37264148556096</v>
-      </c>
       <c r="J44" t="n">
-        <v>378.2242654148067</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436023</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118415</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459573</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955891</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596214</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.28428657842</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570209</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226638</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956524</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695444</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4949906792617</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K45" t="n">
-        <v>409.1677662724247</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="L45" t="n">
-        <v>904.4933724881834</v>
+        <v>1063.776437885087</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.871860114735</v>
+        <v>1655.794792137216</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.469823669342</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.469823669342</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.09297316441</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5337506739457</v>
+        <v>495.0957149476023</v>
       </c>
       <c r="C46" t="n">
-        <v>695.533750673946</v>
+        <v>326.1595320196955</v>
       </c>
       <c r="D46" t="n">
-        <v>545.4171112616102</v>
+        <v>176.0428926073598</v>
       </c>
       <c r="E46" t="n">
-        <v>545.4171112616102</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F46" t="n">
-        <v>402.756278594529</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
-        <v>235.560179309409</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
         <v>93.84834815160703</v>
@@ -7804,52 +7804,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819307</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074693</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834095</v>
+        <v>820.2210160948592</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674452</v>
+        <v>1654.146473931026</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383437</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683895</v>
+        <v>2429.412499335696</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936297</v>
+        <v>2361.553154294198</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591202</v>
+        <v>2178.382964033128</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614143</v>
+        <v>1958.70418174751</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958341</v>
+        <v>1669.627968062237</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752454</v>
+        <v>1414.94347985635</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715493</v>
+        <v>1125.526309819389</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174759</v>
+        <v>897.536758921372</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5337506739457</v>
+        <v>676.7441797778421</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050813</v>
       </c>
       <c r="M6" t="n">
-        <v>422.28657940933</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.269243651622</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8693,22 +8693,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476838</v>
+        <v>60.66917680434125</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>317.5146261106144</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>148.4180109385407</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476847</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>374.1693948021951</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,25 +9401,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>285.7011105564225</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>13.9882388354705</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9644,19 +9644,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400226</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>201.9664098701129</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>26.53637927789481</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>287.453153218266</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>52.64011817320954</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>304.5677898107822</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.4711746387086</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>75.13816255836127</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.556976973656816</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>93.93657696562934</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>191.3415468364688</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>105.0742887270165</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14213605696673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>73.85778156328884</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>161.5631840798979</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>71.67627119164555</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>149.6011269984267</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>80.84984602582156</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2396273813003</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I28" t="n">
-        <v>84.46192760898774</v>
+        <v>84.28234746703997</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.15392492125476</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.998568603852886</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H31" t="n">
-        <v>3.091056990544587</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>84.28234746703997</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.15392492125476</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>182.8784344308282</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8595503594825</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.998568603851986</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>84.28234746703997</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.15392492125476</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8595503594825</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>6.13751123943552</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>65.06136363537665</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
@@ -25330,7 +25330,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>76.49076379342023</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>59.08139078076135</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537622</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.3148091464369</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>63.35659541391553</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537397</v>
       </c>
       <c r="F46" t="n">
-        <v>4.186823682520897</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740736</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>977294.0982740737</v>
+        <v>977294.0982740738</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>977294.0982740736</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>973787.6134467297</v>
+        <v>973734.6555875747</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>973787.6134467296</v>
+        <v>973734.6555875746</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>973787.6134467297</v>
+        <v>973734.6555875747</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>972845.527383094</v>
+        <v>973003.9654816169</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="C2" t="n">
         <v>451572.9734253561</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>451572.973425356</v>
-      </c>
-      <c r="D2" t="n">
-        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
         <v>436789.9655756815</v>
@@ -26326,34 +26326,34 @@
         <v>436789.9655756815</v>
       </c>
       <c r="G2" t="n">
+        <v>436789.9655756814</v>
+      </c>
+      <c r="H2" t="n">
+        <v>436789.9655756814</v>
+      </c>
+      <c r="I2" t="n">
         <v>436789.9655756815</v>
       </c>
-      <c r="H2" t="n">
-        <v>436789.9655756815</v>
-      </c>
-      <c r="I2" t="n">
-        <v>436789.9655756814</v>
-      </c>
       <c r="J2" t="n">
-        <v>442417.8808406403</v>
+        <v>442502.8783120723</v>
       </c>
       <c r="K2" t="n">
-        <v>442417.8808406403</v>
+        <v>442502.8783120723</v>
       </c>
       <c r="L2" t="n">
-        <v>442417.8808406405</v>
+        <v>442502.8783120724</v>
       </c>
       <c r="M2" t="n">
-        <v>443675.6374152077</v>
+        <v>443675.6374152075</v>
       </c>
       <c r="N2" t="n">
-        <v>443675.6374152076</v>
+        <v>443675.6374152075</v>
       </c>
       <c r="O2" t="n">
         <v>443675.6374152076</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295034</v>
+        <v>443675.6374152077</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>334053.3250733748</v>
+        <v>336433.9864356432</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163129.4787408576</v>
+        <v>160866.4619420251</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>9.080067684408276e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="H4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="H4" t="n">
-        <v>25090.72367499383</v>
-      </c>
       <c r="I4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>9308.90653674953</v>
+        <v>9070.556508370544</v>
       </c>
       <c r="K4" t="n">
-        <v>9308.906536749535</v>
+        <v>9070.556508370541</v>
       </c>
       <c r="L4" t="n">
-        <v>9308.906536749539</v>
+        <v>9070.556508370544</v>
       </c>
       <c r="M4" t="n">
         <v>5781.971894855098</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855088</v>
+        <v>5781.971894855098</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855171</v>
+        <v>5781.971894855098</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5781.971894854999</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26482,22 +26482,22 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="K5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="L5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
@@ -26509,7 +26509,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422318.4897803293</v>
+        <v>-422318.4897803295</v>
       </c>
       <c r="C6" t="n">
-        <v>167649.3894342149</v>
+        <v>167649.3894342151</v>
       </c>
       <c r="D6" t="n">
-        <v>167649.3894342149</v>
+        <v>167649.389434215</v>
       </c>
       <c r="E6" t="n">
-        <v>-412061.6903464328</v>
+        <v>-412128.8858366584</v>
       </c>
       <c r="F6" t="n">
-        <v>315315.723646974</v>
+        <v>315248.5281567482</v>
       </c>
       <c r="G6" t="n">
-        <v>315315.7236469741</v>
+        <v>315248.528156748</v>
       </c>
       <c r="H6" t="n">
-        <v>315315.723646974</v>
+        <v>315248.5281567481</v>
       </c>
       <c r="I6" t="n">
-        <v>315315.7236469736</v>
+        <v>315248.5281567482</v>
       </c>
       <c r="J6" t="n">
-        <v>-1043.909618814854</v>
+        <v>-3198.573931522558</v>
       </c>
       <c r="K6" t="n">
-        <v>333009.41545456</v>
+        <v>333235.4125041206</v>
       </c>
       <c r="L6" t="n">
-        <v>333009.4154545601</v>
+        <v>333235.4125041207</v>
       </c>
       <c r="M6" t="n">
-        <v>173834.1473222565</v>
+        <v>176061.2671392245</v>
       </c>
       <c r="N6" t="n">
-        <v>336963.626063114</v>
+        <v>336927.7290812495</v>
       </c>
       <c r="O6" t="n">
-        <v>336963.626063114</v>
+        <v>336927.7290812496</v>
       </c>
       <c r="P6" t="n">
-        <v>331104.2941502103</v>
+        <v>336927.729081249</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,16 +26756,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1309.039113184553</v>
+        <v>1312.350597059648</v>
       </c>
       <c r="K3" t="n">
-        <v>1309.039113184553</v>
+        <v>1312.350597059648</v>
       </c>
       <c r="L3" t="n">
-        <v>1309.039113184553</v>
+        <v>1312.350597059648</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26777,7 +26777,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716387</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26811,13 +26811,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="M4" t="n">
         <v>1173.104351895088</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2624125912548</v>
+        <v>222.5738964663499</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.00193553183249</v>
+        <v>45.69045165673765</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.7892464573154</v>
+        <v>656.5249766664082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.3151054377727</v>
+        <v>516.5793752286795</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>317.1477916357103</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>260.8670049258785</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>13.49974891371821</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>28.31325977179779</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>43.57481933898777</v>
+        <v>206.5745667407358</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>127.9941592285897</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>282.2703971086677</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>290.3407779398149</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>288.2527403163664</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>19.5908482218091</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>22.54869530067461</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.270539643082884e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-3.301313890687772e-13</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.262468796721818</v>
+        <v>5.275781294712149</v>
       </c>
       <c r="H26" t="n">
-        <v>53.89425856442734</v>
+        <v>54.03059518447081</v>
       </c>
       <c r="I26" t="n">
-        <v>202.8813282856181</v>
+        <v>203.3945583643903</v>
       </c>
       <c r="J26" t="n">
-        <v>446.6454610357688</v>
+        <v>447.7753426620757</v>
       </c>
       <c r="K26" t="n">
-        <v>669.4057652010035</v>
+        <v>671.0991648672411</v>
       </c>
       <c r="L26" t="n">
-        <v>830.4570446386791</v>
+        <v>832.5578566652882</v>
       </c>
       <c r="M26" t="n">
-        <v>924.0434741023806</v>
+        <v>926.3810322651254</v>
       </c>
       <c r="N26" t="n">
-        <v>938.9954635710666</v>
+        <v>941.3708458687264</v>
       </c>
       <c r="O26" t="n">
-        <v>886.666789473664</v>
+        <v>888.9097956194323</v>
       </c>
       <c r="P26" t="n">
-        <v>756.749591054594</v>
+        <v>758.6639449062261</v>
       </c>
       <c r="Q26" t="n">
-        <v>568.2874272719937</v>
+        <v>569.7250272893471</v>
       </c>
       <c r="R26" t="n">
-        <v>330.5685555520772</v>
+        <v>331.4047967539623</v>
       </c>
       <c r="S26" t="n">
-        <v>119.9185077052986</v>
+        <v>120.2218662532532</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03645715764977</v>
+        <v>23.09473261760245</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4209975037377454</v>
+        <v>0.4220625035769719</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.815669035906398</v>
+        <v>2.822791850279244</v>
       </c>
       <c r="H27" t="n">
-        <v>27.19343516256969</v>
+        <v>27.2622265540127</v>
       </c>
       <c r="I27" t="n">
-        <v>96.94299092923345</v>
+        <v>97.18822817847396</v>
       </c>
       <c r="J27" t="n">
-        <v>266.0189767651742</v>
+        <v>266.6919265213385</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6688021709029</v>
+        <v>455.8189804900479</v>
       </c>
       <c r="L27" t="n">
-        <v>378.1838134858788</v>
+        <v>612.9048708248857</v>
       </c>
       <c r="M27" t="n">
-        <v>713.4263166855815</v>
+        <v>715.2310753975082</v>
       </c>
       <c r="N27" t="n">
-        <v>732.308588421989</v>
+        <v>734.1611137267932</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>275.1068015584843</v>
       </c>
       <c r="P27" t="n">
-        <v>537.6692916021613</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.4176825483325</v>
+        <v>360.3269035549434</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375131</v>
       </c>
       <c r="S27" t="n">
-        <v>52.2998173994017</v>
+        <v>52.43212055233591</v>
       </c>
       <c r="T27" t="n">
-        <v>11.34912212279815</v>
+        <v>11.37783206318695</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1852413839412105</v>
+        <v>0.1857099901499503</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.360562335250834</v>
+        <v>2.366533863550185</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98754512613925</v>
+        <v>21.04063744138257</v>
       </c>
       <c r="I28" t="n">
-        <v>70.98854731827055</v>
+        <v>71.16812746021832</v>
       </c>
       <c r="J28" t="n">
-        <v>166.8917571022339</v>
+        <v>167.3139441529981</v>
       </c>
       <c r="K28" t="n">
-        <v>274.2544240409604</v>
+        <v>274.9482070561032</v>
       </c>
       <c r="L28" t="n">
-        <v>350.9512402790194</v>
+        <v>351.8390436772703</v>
       </c>
       <c r="M28" t="n">
-        <v>370.0288758793647</v>
+        <v>370.9649400835985</v>
       </c>
       <c r="N28" t="n">
-        <v>361.2304162661574</v>
+        <v>362.1442229558209</v>
       </c>
       <c r="O28" t="n">
-        <v>333.6547562589089</v>
+        <v>334.4988046407117</v>
       </c>
       <c r="P28" t="n">
-        <v>285.4992846197916</v>
+        <v>286.2215138242877</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.6649060908676</v>
+        <v>198.1649401560069</v>
       </c>
       <c r="R28" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S28" t="n">
-        <v>41.13816360614406</v>
+        <v>41.24223105841548</v>
       </c>
       <c r="T28" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1290836652845557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.262468796721818</v>
+        <v>5.275781294712149</v>
       </c>
       <c r="H29" t="n">
-        <v>53.89425856442734</v>
+        <v>54.03059518447081</v>
       </c>
       <c r="I29" t="n">
-        <v>202.8813282856181</v>
+        <v>203.3945583643903</v>
       </c>
       <c r="J29" t="n">
-        <v>446.6454610357688</v>
+        <v>447.7753426620757</v>
       </c>
       <c r="K29" t="n">
-        <v>669.4057652010035</v>
+        <v>671.0991648672411</v>
       </c>
       <c r="L29" t="n">
-        <v>830.4570446386791</v>
+        <v>832.5578566652882</v>
       </c>
       <c r="M29" t="n">
-        <v>924.0434741023806</v>
+        <v>926.3810322651254</v>
       </c>
       <c r="N29" t="n">
-        <v>938.9954635710666</v>
+        <v>941.3708458687264</v>
       </c>
       <c r="O29" t="n">
-        <v>886.666789473664</v>
+        <v>888.9097956194323</v>
       </c>
       <c r="P29" t="n">
-        <v>756.749591054594</v>
+        <v>758.6639449062261</v>
       </c>
       <c r="Q29" t="n">
-        <v>568.2874272719937</v>
+        <v>569.7250272893471</v>
       </c>
       <c r="R29" t="n">
-        <v>330.5685555520772</v>
+        <v>331.4047967539623</v>
       </c>
       <c r="S29" t="n">
-        <v>119.9185077052986</v>
+        <v>120.2218662532532</v>
       </c>
       <c r="T29" t="n">
-        <v>23.03645715764977</v>
+        <v>23.09473261760245</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4209975037377454</v>
+        <v>0.4220625035769719</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.815669035906398</v>
+        <v>2.822791850279244</v>
       </c>
       <c r="H30" t="n">
-        <v>27.19343516256969</v>
+        <v>27.2622265540127</v>
       </c>
       <c r="I30" t="n">
-        <v>96.94299092923345</v>
+        <v>97.18822817847396</v>
       </c>
       <c r="J30" t="n">
-        <v>266.0189767651742</v>
+        <v>266.6919265213385</v>
       </c>
       <c r="K30" t="n">
-        <v>454.6688021709029</v>
+        <v>455.8189804900479</v>
       </c>
       <c r="L30" t="n">
-        <v>611.3583141339748</v>
+        <v>612.9048708248857</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>715.2310753975082</v>
       </c>
       <c r="N30" t="n">
-        <v>732.308588421989</v>
+        <v>734.1611137267932</v>
       </c>
       <c r="O30" t="n">
-        <v>669.9192903105893</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>348.4640278514834</v>
+        <v>266.4849645283701</v>
       </c>
       <c r="Q30" t="n">
-        <v>359.4176825483325</v>
+        <v>360.3269035549434</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375131</v>
       </c>
       <c r="S30" t="n">
-        <v>52.2998173994017</v>
+        <v>52.43212055233591</v>
       </c>
       <c r="T30" t="n">
-        <v>11.34912212279815</v>
+        <v>11.37783206318695</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1852413839412105</v>
+        <v>0.1857099901499503</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.360562335250834</v>
+        <v>2.366533863550185</v>
       </c>
       <c r="H31" t="n">
-        <v>20.98754512613925</v>
+        <v>21.04063744138257</v>
       </c>
       <c r="I31" t="n">
-        <v>70.98854731827055</v>
+        <v>71.16812746021832</v>
       </c>
       <c r="J31" t="n">
-        <v>166.8917571022339</v>
+        <v>167.3139441529981</v>
       </c>
       <c r="K31" t="n">
-        <v>274.2544240409604</v>
+        <v>274.9482070561032</v>
       </c>
       <c r="L31" t="n">
-        <v>350.9512402790194</v>
+        <v>351.8390436772703</v>
       </c>
       <c r="M31" t="n">
-        <v>370.0288758793647</v>
+        <v>370.9649400835985</v>
       </c>
       <c r="N31" t="n">
-        <v>361.2304162661574</v>
+        <v>362.1442229558209</v>
       </c>
       <c r="O31" t="n">
-        <v>333.6547562589089</v>
+        <v>334.4988046407117</v>
       </c>
       <c r="P31" t="n">
-        <v>285.4992846197916</v>
+        <v>286.2215138242877</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.6649060908676</v>
+        <v>198.1649401560069</v>
       </c>
       <c r="R31" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S31" t="n">
-        <v>41.13816360614406</v>
+        <v>41.24223105841548</v>
       </c>
       <c r="T31" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1290836652845557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.262468796721818</v>
+        <v>5.275781294712149</v>
       </c>
       <c r="H32" t="n">
-        <v>53.89425856442734</v>
+        <v>54.03059518447081</v>
       </c>
       <c r="I32" t="n">
-        <v>202.8813282856181</v>
+        <v>203.3945583643903</v>
       </c>
       <c r="J32" t="n">
-        <v>446.6454610357688</v>
+        <v>447.7753426620757</v>
       </c>
       <c r="K32" t="n">
-        <v>669.4057652010035</v>
+        <v>671.0991648672411</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4570446386791</v>
+        <v>832.5578566652882</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0434741023806</v>
+        <v>926.3810322651254</v>
       </c>
       <c r="N32" t="n">
-        <v>938.9954635710666</v>
+        <v>941.3708458687264</v>
       </c>
       <c r="O32" t="n">
-        <v>886.666789473664</v>
+        <v>888.9097956194323</v>
       </c>
       <c r="P32" t="n">
-        <v>756.749591054594</v>
+        <v>758.6639449062261</v>
       </c>
       <c r="Q32" t="n">
-        <v>568.2874272719937</v>
+        <v>569.7250272893471</v>
       </c>
       <c r="R32" t="n">
-        <v>330.5685555520772</v>
+        <v>331.4047967539623</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9185077052986</v>
+        <v>120.2218662532532</v>
       </c>
       <c r="T32" t="n">
-        <v>23.03645715764977</v>
+        <v>23.09473261760245</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4209975037377454</v>
+        <v>0.4220625035769719</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.815669035906398</v>
+        <v>2.822791850279244</v>
       </c>
       <c r="H33" t="n">
-        <v>27.19343516256969</v>
+        <v>27.2622265540127</v>
       </c>
       <c r="I33" t="n">
-        <v>96.94299092923345</v>
+        <v>97.18822817847396</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>266.6919265213385</v>
       </c>
       <c r="K33" t="n">
-        <v>306.1565401092702</v>
+        <v>257.0761653187971</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>612.9048708248857</v>
       </c>
       <c r="M33" t="n">
-        <v>713.4263166855815</v>
+        <v>715.2310753975082</v>
       </c>
       <c r="N33" t="n">
-        <v>732.308588421989</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>669.9192903105893</v>
+        <v>671.61398904429</v>
       </c>
       <c r="P33" t="n">
-        <v>537.6692916021613</v>
+        <v>539.0294367432356</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.4176825483325</v>
+        <v>360.3269035549434</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375131</v>
       </c>
       <c r="S33" t="n">
-        <v>52.2998173994017</v>
+        <v>52.43212055233591</v>
       </c>
       <c r="T33" t="n">
-        <v>11.34912212279815</v>
+        <v>11.37783206318695</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1852413839412105</v>
+        <v>0.1857099901499503</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.360562335250834</v>
+        <v>2.366533863550185</v>
       </c>
       <c r="H34" t="n">
-        <v>20.98754512613925</v>
+        <v>21.04063744138257</v>
       </c>
       <c r="I34" t="n">
-        <v>70.98854731827055</v>
+        <v>71.16812746021832</v>
       </c>
       <c r="J34" t="n">
-        <v>166.8917571022339</v>
+        <v>167.3139441529981</v>
       </c>
       <c r="K34" t="n">
-        <v>274.2544240409604</v>
+        <v>274.9482070561032</v>
       </c>
       <c r="L34" t="n">
-        <v>350.9512402790194</v>
+        <v>351.8390436772703</v>
       </c>
       <c r="M34" t="n">
-        <v>370.0288758793647</v>
+        <v>370.9649400835985</v>
       </c>
       <c r="N34" t="n">
-        <v>361.2304162661574</v>
+        <v>362.1442229558209</v>
       </c>
       <c r="O34" t="n">
-        <v>333.6547562589089</v>
+        <v>334.4988046407117</v>
       </c>
       <c r="P34" t="n">
-        <v>285.4992846197916</v>
+        <v>286.2215138242877</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.6649060908676</v>
+        <v>198.1649401560069</v>
       </c>
       <c r="R34" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S34" t="n">
-        <v>41.13816360614406</v>
+        <v>41.24223105841548</v>
       </c>
       <c r="T34" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1290836652845557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,28 +33734,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>709.5251905661869</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>726.5298133996307</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
         <v>181.3625385436714</v>
@@ -33983,13 +33983,13 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>153.7812479945272</v>
+        <v>358.3392732200426</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
         <v>372.8719498286953</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34202,43 +34202,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>266.1552026179228</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>273.2705663475585</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34284,7 +34284,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34293,16 +34293,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
         <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
-        <v>305.1876769472509</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>346.035213005875</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856238</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400159</v>
+        <v>516.2592911966734</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>654.7059126660149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
@@ -35665,7 +35665,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>399.2123157422602</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400166</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>913.0905106324219</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>741.2912249487545</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>522.0412397236896</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282419</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>452.7607146738324</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
@@ -36522,19 +36522,19 @@
         <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>292.1359357869774</v>
+        <v>266.7294381353894</v>
       </c>
       <c r="K26" t="n">
-        <v>449.315914156023</v>
+        <v>451.0093138222606</v>
       </c>
       <c r="L26" t="n">
-        <v>594.6906296686918</v>
+        <v>596.791441695301</v>
       </c>
       <c r="M26" t="n">
-        <v>693.6972408751079</v>
+        <v>983.4879522561188</v>
       </c>
       <c r="N26" t="n">
-        <v>709.5823999744757</v>
+        <v>711.9577822721355</v>
       </c>
       <c r="O26" t="n">
-        <v>656.5685780519773</v>
+        <v>658.8115841977456</v>
       </c>
       <c r="P26" t="n">
-        <v>525.5165952993245</v>
+        <v>527.4309491509566</v>
       </c>
       <c r="Q26" t="n">
-        <v>558.2967280574489</v>
+        <v>347.4193374148975</v>
       </c>
       <c r="R26" t="n">
-        <v>180.6994376109275</v>
+        <v>115.8192589398302</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.1813500985075</v>
+        <v>139.8542998546718</v>
       </c>
       <c r="K27" t="n">
-        <v>316.8273631965439</v>
+        <v>317.9775415156889</v>
       </c>
       <c r="L27" t="n">
-        <v>239.6294337060046</v>
+        <v>474.3504910450116</v>
       </c>
       <c r="M27" t="n">
-        <v>571.2922827635632</v>
+        <v>573.09704147549</v>
       </c>
       <c r="N27" t="n">
-        <v>600.9668763386558</v>
+        <v>602.81940164346</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>132.5105571140399</v>
       </c>
       <c r="P27" t="n">
-        <v>403.694884187831</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.435908462311</v>
+        <v>220.3451294689219</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.58120407354915</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53257698556115</v>
+        <v>73.95476403632529</v>
       </c>
       <c r="K28" t="n">
-        <v>251.9849322150776</v>
+        <v>252.6787152302204</v>
       </c>
       <c r="L28" t="n">
-        <v>378.5412655393355</v>
+        <v>379.4290689375864</v>
       </c>
       <c r="M28" t="n">
-        <v>409.6127528412053</v>
+        <v>410.5488170454391</v>
       </c>
       <c r="N28" t="n">
-        <v>405.3625886453859</v>
+        <v>406.2763953350494</v>
       </c>
       <c r="O28" t="n">
-        <v>358.2398841729486</v>
+        <v>359.0839325547514</v>
       </c>
       <c r="P28" t="n">
-        <v>282.7778438846851</v>
+        <v>283.5000730891812</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.5028628391732</v>
+        <v>112.0028969043125</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>265.5995565090826</v>
+        <v>435.8260533074632</v>
       </c>
       <c r="K29" t="n">
-        <v>449.315914156023</v>
+        <v>451.0093138222606</v>
       </c>
       <c r="L29" t="n">
-        <v>594.6906296686918</v>
+        <v>649.4315598685106</v>
       </c>
       <c r="M29" t="n">
-        <v>693.6972408751079</v>
+        <v>696.0347990378527</v>
       </c>
       <c r="N29" t="n">
-        <v>1014.150189785258</v>
+        <v>711.9577822721355</v>
       </c>
       <c r="O29" t="n">
-        <v>656.5685780519773</v>
+        <v>658.8115841977456</v>
       </c>
       <c r="P29" t="n">
-        <v>525.5165952993245</v>
+        <v>527.4309491509566</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.9817373975442</v>
+        <v>347.4193374148975</v>
       </c>
       <c r="R29" t="n">
-        <v>114.9830177379451</v>
+        <v>181.5356788128126</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.1813500985075</v>
+        <v>139.8542998546718</v>
       </c>
       <c r="K30" t="n">
-        <v>316.8273631965439</v>
+        <v>317.9775415156889</v>
       </c>
       <c r="L30" t="n">
-        <v>472.8039343541006</v>
+        <v>474.3504910450116</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>573.09704147549</v>
       </c>
       <c r="N30" t="n">
-        <v>600.9668763386558</v>
+        <v>602.81940164346</v>
       </c>
       <c r="O30" t="n">
-        <v>527.3230458661449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>214.4896204371531</v>
+        <v>132.5105571140399</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.435908462311</v>
+        <v>220.3451294689219</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.58120407354915</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.53257698556115</v>
+        <v>73.95476403632529</v>
       </c>
       <c r="K31" t="n">
-        <v>251.9849322150776</v>
+        <v>252.6787152302204</v>
       </c>
       <c r="L31" t="n">
-        <v>378.5412655393355</v>
+        <v>379.4290689375864</v>
       </c>
       <c r="M31" t="n">
-        <v>409.6127528412053</v>
+        <v>410.5488170454391</v>
       </c>
       <c r="N31" t="n">
-        <v>405.3625886453859</v>
+        <v>406.2763953350494</v>
       </c>
       <c r="O31" t="n">
-        <v>358.2398841729486</v>
+        <v>359.0839325547514</v>
       </c>
       <c r="P31" t="n">
-        <v>282.7778438846851</v>
+        <v>283.5000730891812</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.5028628391732</v>
+        <v>112.0028969043125</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>434.6961716811563</v>
+        <v>266.7294381353894</v>
       </c>
       <c r="K32" t="n">
-        <v>584.7870887947316</v>
+        <v>451.0093138222606</v>
       </c>
       <c r="L32" t="n">
-        <v>594.6906296686918</v>
+        <v>596.791441695301</v>
       </c>
       <c r="M32" t="n">
-        <v>693.6972408751079</v>
+        <v>696.0347990378527</v>
       </c>
       <c r="N32" t="n">
-        <v>709.5823999744757</v>
+        <v>711.9577822721355</v>
       </c>
       <c r="O32" t="n">
-        <v>656.5685780519773</v>
+        <v>658.8115841977456</v>
       </c>
       <c r="P32" t="n">
-        <v>525.5165952993245</v>
+        <v>602.5691117093179</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.9817373975442</v>
+        <v>559.7343280748023</v>
       </c>
       <c r="R32" t="n">
-        <v>114.9830177379451</v>
+        <v>115.8192589398302</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>139.8542998546718</v>
       </c>
       <c r="K33" t="n">
-        <v>168.3151011349112</v>
+        <v>119.2347263444381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>474.3504910450116</v>
       </c>
       <c r="M33" t="n">
-        <v>571.2922827635632</v>
+        <v>573.09704147549</v>
       </c>
       <c r="N33" t="n">
-        <v>600.9668763386558</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>527.3230458661449</v>
+        <v>529.0177445998455</v>
       </c>
       <c r="P33" t="n">
-        <v>403.694884187831</v>
+        <v>405.0550293289053</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.435908462311</v>
+        <v>220.3451294689219</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.58120407354915</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.53257698556115</v>
+        <v>73.95476403632529</v>
       </c>
       <c r="K34" t="n">
-        <v>251.9849322150776</v>
+        <v>252.6787152302204</v>
       </c>
       <c r="L34" t="n">
-        <v>378.5412655393355</v>
+        <v>379.4290689375864</v>
       </c>
       <c r="M34" t="n">
-        <v>409.6127528412053</v>
+        <v>410.5488170454391</v>
       </c>
       <c r="N34" t="n">
-        <v>405.3625886453859</v>
+        <v>406.2763953350494</v>
       </c>
       <c r="O34" t="n">
-        <v>358.2398841729486</v>
+        <v>359.0839325547514</v>
       </c>
       <c r="P34" t="n">
-        <v>282.7778438846851</v>
+        <v>283.5000730891812</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.5028628391732</v>
+        <v>112.0028969043125</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>567.3911566441686</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>595.1881013162974</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
         <v>35.68303457970742</v>
@@ -37555,7 +37555,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P38" t="n">
         <v>553.844392613483</v>
@@ -37564,7 +37564,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>11.18500355008275</v>
+        <v>215.7430287755981</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
         <v>232.8901757426738</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>796.0449487554608</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>127.6008228380486</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>139.2961589332282</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37950,7 +37950,7 @@
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P43" t="n">
         <v>293.4650856931359</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>796.0449487554536</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
-        <v>167.3462379728919</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>214.6935009225417</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
